--- a/mosh/python/materials/transactions.xlsx
+++ b/mosh/python/materials/transactions.xlsx
@@ -44,6 +44,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,16 +130,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -161,6 +159,7 @@
       <c r="C2" s="1" t="n">
         <v>5.95</v>
       </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -172,6 +171,7 @@
       <c r="C3" s="1" t="n">
         <v>6.95</v>
       </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -183,6 +183,7 @@
       <c r="C4" s="1" t="n">
         <v>7.95</v>
       </c>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
